--- a/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,47</t>
+          <t>2,98; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,08</t>
+          <t>4,79; 9,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,11</t>
+          <t>2,35; 5,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,32</t>
+          <t>1,38; 3,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,49</t>
+          <t>2,15; 5,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,17</t>
+          <t>0,9; 3,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,09</t>
+          <t>2,45; 4,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,9</t>
+          <t>4,02; 7,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,17</t>
+          <t>1,94; 3,85</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,28</t>
+          <t>4,1; 8,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,89</t>
+          <t>5,96; 11,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,06</t>
+          <t>2,3; 6,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,82</t>
+          <t>1,21; 3,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,81</t>
+          <t>1,37; 4,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,02</t>
+          <t>0,86; 3,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,18</t>
+          <t>2,67; 5,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,62</t>
+          <t>4,46; 7,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,67</t>
+          <t>1,75; 4,01</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,68</t>
+          <t>8,58; 12,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,47</t>
+          <t>1,45; 11,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 11,87</t>
+          <t>4,35; 8,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,5</t>
+          <t>3,17; 7,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,61</t>
+          <t>6,23; 15,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,71</t>
+          <t>1,46; 6,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,77</t>
+          <t>7,45; 10,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,95</t>
+          <t>1,79; 11,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 9,78</t>
+          <t>3,75; 7,43</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,61</t>
+          <t>7,66; 11,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 12,47</t>
+          <t>7,46; 12,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,45</t>
+          <t>7,01; 11,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,43</t>
+          <t>3,82; 6,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,96</t>
+          <t>0,99; 4,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,56</t>
+          <t>2,81; 6,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 9,96</t>
+          <t>6,2; 8,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,04</t>
+          <t>3,25; 7,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,38</t>
+          <t>5,31; 8,17</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,1</t>
+          <t>6,3; 11,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 11,57</t>
+          <t>3,81; 9,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,48</t>
+          <t>3,22; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,11</t>
+          <t>6,74; 10,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,7</t>
+          <t>4,69; 10,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,09</t>
+          <t>5,02; 11,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,58</t>
+          <t>7,05; 10,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 11,57</t>
+          <t>5,22; 9,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,81</t>
+          <t>4,73; 8,6</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,34; 3,63</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 4,02</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 2,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 2,06</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,6</t>
+          <t>5,17; 9,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 12,28</t>
+          <t>8,28; 12,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,9</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,46</t>
+          <t>4,04; 7,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,71</t>
+          <t>6,47; 9,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,27</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,06</t>
+          <t>6,7; 8,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,99; 9,8</t>
+          <t>4,74; 8,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 8,19</t>
+          <t>4,76; 6,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,41</t>
+          <t>4,33; 5,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 7,99</t>
+          <t>4,3; 6,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,62</t>
+          <t>2,77; 4,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,0</t>
+          <t>5,74; 6,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,58</t>
+          <t>5,11; 7,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,66</t>
+          <t>3,98; 5,23</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la diabetes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6379</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25871</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10487</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3219</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10411</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5192</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9598</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36282</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15679</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4349; 8706</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17558; 35034</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6935; 15390</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1970; 5321</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6428; 15804</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2490; 9766</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7070; 12823</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26789; 46933</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11100; 22005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28167</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7538</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7103</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34982</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11769</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3328; 7166</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19326; 38375</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4510; 11961</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1318; 3677</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3556; 10988</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1987; 8488</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5089; 9683</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26074; 45725</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7493; 17169</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17198</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24241</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11233</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3196</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20394</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34396</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14195</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14066; 21053</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6917; 55748</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7870; 16014</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2002; 4885</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6073; 15292</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1207; 5786</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16917; 24273</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10239; 65011</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9881; 19591</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16380</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50301</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27737</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9032</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13262</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25411</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67617</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40999</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13031; 20160</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>39998; 64880</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21622; 36092</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6763; 12129</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6273; 28848</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8885; 19201</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21545; 30172</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38139; 88714</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>33169; 51022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6755</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13381</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7720</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11448</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>34390</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18203</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>47771</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19720</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4845; 9059</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8042; 21019</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4832; 12082</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8956; 14609</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19874; 45584</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7792; 17219</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14780; 22085</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33175; 61135</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14452; 26267</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8164</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49670</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8809</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51691</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>153; 1643</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>457; 6696</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6120; 10991</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40583; 60087</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1145</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6609; 11577</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>42491; 63950</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1077</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>52196</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>143983</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>64715</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>37324</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>128756</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>37846</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>89519</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>272739</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>102561</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45786; 58346</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>98556; 175161</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>54246; 75461</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32210; 42180</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>94887; 152096</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>29696; 47126</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>81844; 97881</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>219123; 310693</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>88108; 115900</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes</t>
+          <t>Consumo de medicamentos para la diabetes (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes</t>
+          <t>Consumo de medicamentos para la diabetes (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,97</t>
+          <t>2,89; 5,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,55</t>
+          <t>4,97; 9,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,72</t>
+          <t>1,07; 2,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,29</t>
+          <t>2,27; 5,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,44</t>
+          <t>2,2; 3,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,05</t>
+          <t>3,95; 7,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,83</t>
+          <t>3,76; 8,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,84</t>
+          <t>6,04; 11,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,37</t>
+          <t>1,47; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,22</t>
+          <t>1,45; 4,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,09</t>
+          <t>2,73; 5,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,83</t>
+          <t>4,47; 8,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,85</t>
+          <t>8,12; 12,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 11,73</t>
+          <t>1,49; 11,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,74</t>
+          <t>3,49; 8,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 15,67</t>
+          <t>6,53; 16,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,69</t>
+          <t>7,21; 10,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 11,35</t>
+          <t>1,88; 11,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,85</t>
+          <t>7,53; 11,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 12,1</t>
+          <t>7,19; 11,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,85</t>
+          <t>3,39; 6,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,53</t>
+          <t>0,95; 4,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 8,69</t>
+          <t>5,67; 7,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,56</t>
+          <t>3,34; 7,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,79</t>
+          <t>7,35; 13,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,95</t>
+          <t>3,83; 9,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,99</t>
+          <t>5,89; 10,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,75</t>
+          <t>4,38; 10,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,53</t>
+          <t>7,06; 10,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,63</t>
+          <t>5,21; 9,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,63</t>
+          <t>0,47; 4,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,02</t>
+          <t>0,29; 4,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,29</t>
+          <t>4,44; 8,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,26</t>
+          <t>8,24; 12,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,08</t>
+          <t>3,5; 6,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,74</t>
+          <t>6,37; 9,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,7; 8,54</t>
+          <t>6,39; 8,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,42</t>
+          <t>4,64; 8,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 5,67</t>
+          <t>3,85; 5,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,89</t>
+          <t>4,15; 6,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 6,86</t>
+          <t>5,22; 6,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,25</t>
+          <t>4,99; 7,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6379</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9598</t>
+          <t>9465</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4349; 8706</t>
+          <t>4698; 9311</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17558; 35034</t>
+          <t>18223; 36138</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1970; 5321</t>
+          <t>1810; 4825</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6428; 15804</t>
+          <t>6781; 16289</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7070; 12823</t>
+          <t>7292; 12541</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26789; 46933</t>
+          <t>26308; 47143</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4839</t>
+          <t>5014</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7103</t>
+          <t>8136</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3328; 7166</t>
+          <t>3399; 7348</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19326; 38375</t>
+          <t>19556; 38351</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1318; 3677</t>
+          <t>1803; 5108</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3556; 10988</t>
+          <t>3776; 12019</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5089; 9683</t>
+          <t>5816; 11069</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26074; 45725</t>
+          <t>26093; 46845</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17198</t>
+          <t>15377</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20394</t>
+          <t>18666</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14066; 21053</t>
+          <t>12495; 18763</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6917; 55748</t>
+          <t>7093; 54181</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2002; 4885</t>
+          <t>2149; 5251</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6073; 15292</t>
+          <t>6370; 16298</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16917; 24273</t>
+          <t>15539; 22054</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10239; 65011</t>
+          <t>10794; 64811</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16380</t>
+          <t>15553</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9032</t>
+          <t>8315</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25411</t>
+          <t>23868</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13031; 20160</t>
+          <t>12785; 19213</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39998; 64880</t>
+          <t>38523; 63435</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6763; 12129</t>
+          <t>6184; 10943</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6273; 28848</t>
+          <t>6063; 28482</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21545; 30172</t>
+          <t>19959; 28090</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38139; 88714</t>
+          <t>39179; 88284</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6755</t>
+          <t>7481</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11448</t>
+          <t>9872</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18203</t>
+          <t>17354</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4845; 9059</t>
+          <t>5471; 10044</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8042; 21019</t>
+          <t>8100; 20341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8956; 14609</t>
+          <t>7393; 12554</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19874; 45584</t>
+          <t>18577; 45327</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14780; 22085</t>
+          <t>14103; 20631</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>33175; 61135</t>
+          <t>33108; 60764</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>822</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>7466</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8809</t>
+          <t>8288</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>153; 1643</t>
+          <t>261; 2270</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>457; 6696</t>
+          <t>479; 6820</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6120; 10991</t>
+          <t>5438; 9951</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40583; 60087</t>
+          <t>40373; 60990</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6609; 11577</t>
+          <t>6234; 11191</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>42491; 63950</t>
+          <t>41811; 62521</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>52196</t>
+          <t>50729</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>37324</t>
+          <t>35047</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>89519</t>
+          <t>85777</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>45786; 58346</t>
+          <t>45143; 56893</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>98556; 175161</t>
+          <t>96570; 172000</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32210; 42180</t>
+          <t>30111; 40236</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>94887; 152096</t>
+          <t>91606; 152792</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>81844; 97881</t>
+          <t>77767; 92908</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>219123; 310693</t>
+          <t>213908; 316030</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,98%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,77%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,86%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,78; 9,37</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 5,21</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,89; 5,72</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 9,86</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 5,21</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2,28; 5,44</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 3,53</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1,07; 2,86</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 5,45</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 3,53</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>3,95; 6,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 3,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>2,2; 3,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 7,08</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 3,85</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>5,55%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,69%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,55%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5,91; 11,44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 6,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>3,76; 8,13</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 11,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 6,11</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,4; 4,39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 3,66</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,47; 4,16</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 4,62</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 3,66</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>4,23; 7,65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 4,01</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,73; 5,19</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 8,02</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 4,01</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>9,99%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,34%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>8,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,48; 13,18</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 8,85</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>8,12; 12,19</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 11,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,35; 8,85</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,33; 16,07</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 6,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>3,49; 8,52</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,53; 16,7</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 6,99</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>7,27; 12,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 7,43</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>7,21; 10,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 11,31</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 7,43</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>9,16%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,38%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>4,56%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,2%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>6,78%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,45; 11,97</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,01; 11,7</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>7,53; 11,32</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 11,83</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 11,7</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2,65; 5,29</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 6,08</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,39; 6,01</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 4,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 6,08</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>5,64; 8,4</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 8,17</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5,67; 7,98</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 7,53</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 8,17</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>10,05%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,87%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,74%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>8,68%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,82; 9,16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 8,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>7,35; 13,49</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 9,63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 8,04</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>7,44; 11,94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 11,1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>5,89; 10,01</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 10,69</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,02; 11,1</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>6,48; 10,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 8,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>7,06; 10,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 9,57</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 8,6</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,48%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>6,09%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>4,65%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,87%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,3; 3,96</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,47; 4,08</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 4,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>7,93; 12,1</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,02</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>4,44; 8,12</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,24; 12,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,02</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>6,35; 9,49</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,18</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>3,5; 6,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 9,52</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,18</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>7,18%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>4,48%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>5,76%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,73; 8,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 6,62</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>6,39; 8,05</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 8,27</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,76; 6,62</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>5,77; 7,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 4,39</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>3,85; 5,14</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 6,92</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 4,39</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>6,42; 7,79</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 5,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>5,22; 6,24</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 7,37</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 5,23</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,34 +1549,34 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>55</t>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>55</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>27346</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10487</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>6481</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>25871</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>10487</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>11444</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5192</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2983</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10411</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5192</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>38791</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15679</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>9465</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>36282</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>15679</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>18888; 37055</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6935; 15390</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>4698; 9311</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18223; 36138</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6935; 15390</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7467; 17823</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2490; 9766</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1810; 4825</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6781; 16289</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2490; 9766</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>28527; 50205</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11100; 22005</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>7292; 12541</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>26308; 47143</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>11100; 22005</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>28896</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7538</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>5014</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>28167</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7538</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7160</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3122</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6815</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>36057</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11769</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>8136</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>34982</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>11769</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>20334; 39402</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4510; 11961</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>3399; 7348</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>19556; 38351</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4510; 11961</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4012; 12589</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1987; 8488</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1803; 5108</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3776; 12019</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1987; 8488</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>26735; 48311</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7493; 17169</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>5816; 11069</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>26093; 46845</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>7493; 17169</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>99</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>119</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>24935</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11233</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>15377</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>24241</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11233</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>11217</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3289</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10154</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2963</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>36152</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14195</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>18666</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>34396</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>14195</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>16873; 34332</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7870; 16014</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>12495; 18763</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7093; 54181</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7870; 16014</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7053; 17921</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1207; 5786</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2149; 5251</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6370; 16298</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1207; 5786</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>27037; 46676</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9881; 19591</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>15539; 22054</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10794; 64811</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9881; 19591</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>146</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>58012</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27737</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>15553</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>50301</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27737</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>18275</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13262</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8315</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>17316</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13262</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>76287</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40999</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>23868</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>67617</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>40999</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>45418; 73015</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21622; 36092</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>12785; 19213</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>38523; 63435</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>21622; 36092</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>12969; 25930</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8885; 19201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6184; 10943</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6063; 28482</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8885; 19201</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>62028; 92390</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33169; 51022</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>19959; 28090</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>39179; 88284</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>33169; 51022</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>103</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>15513</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7720</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>7481</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>13381</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>7720</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>38302</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>9872</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>34390</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>12000</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>53815</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>19720</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>17354</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>47771</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>19720</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>9677; 23202</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4832; 12082</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>5471; 10044</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>8100; 20341</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4832; 12082</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>30362; 48733</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7792; 17219</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>7393; 12554</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>18577; 45327</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>7792; 17219</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>42886; 66385</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14452; 26267</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>14103; 20631</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>33108; 60764</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>14452; 26267</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>54</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>822</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>54128</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>7466</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>49670</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>56142</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>8288</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>51691</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>198</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>513; 6707</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>261; 2270</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>479; 6820</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>43393; 66172</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1145</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>5438; 9951</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>40373; 60990</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 1145</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>45487; 67978</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1077</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>6234; 11191</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>41811; 62521</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0; 1077</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>303</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>217</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>520</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>437</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>156716</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64715</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>50729</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>143983</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>64715</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>140528</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>37846</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>35047</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>128756</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>37846</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>297244</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>102561</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>85777</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>272739</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>102561</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>136754; 179471</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>54246; 75461</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>45143; 56893</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>96570; 172000</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>54246; 75461</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>125219; 159825</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>29696; 47126</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>30111; 40236</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>91606; 152792</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>29696; 47126</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>270026; 327497</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>88108; 115900</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>77767; 92908</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>213908; 316030</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>88108; 115900</t>
         </is>
       </c>
     </row>
